--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\repos\ps_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13F99EA-9331-4B4F-BB58-34ADCFB5D860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F80F37-7303-4E0C-AD25-4937B27610A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1(A)" sheetId="1" r:id="rId1"/>
+    <sheet name="3(A)" sheetId="2" r:id="rId2"/>
+    <sheet name="5(A)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,26 +30,683 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="266">
+  <si>
+    <t>01/15/2019</t>
+  </si>
+  <si>
+    <t>Homework</t>
+  </si>
+  <si>
+    <t>Final Review</t>
+  </si>
+  <si>
+    <t>Travel Review A or B</t>
+  </si>
   <si>
     <t>01/08/2019</t>
   </si>
   <si>
+    <t>Warm-up 1.8 1.9</t>
+  </si>
+  <si>
+    <t>12/20/2018</t>
+  </si>
+  <si>
+    <t>Quizzes and Tests</t>
+  </si>
+  <si>
+    <t>Chapter 9 Quiz</t>
+  </si>
+  <si>
+    <t>Ch 9 Practice Quiz</t>
+  </si>
+  <si>
+    <t>12/18/2018</t>
+  </si>
+  <si>
+    <t>Naming and Formula Practice</t>
+  </si>
+  <si>
+    <t>12/17/2018</t>
+  </si>
+  <si>
+    <t>Finish Ch 9</t>
+  </si>
+  <si>
+    <t>12/14/2018</t>
+  </si>
+  <si>
+    <t>Molecular and Ionic Practice</t>
+  </si>
+  <si>
+    <t>12/13/2018</t>
+  </si>
+  <si>
+    <t>Labs</t>
+  </si>
+  <si>
+    <t>Quick Lab: Making Ionic Compounds</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Warm-up Check 12/13</t>
+  </si>
+  <si>
+    <t>12/12/2018</t>
+  </si>
+  <si>
+    <t>Ionic Dice Quiz</t>
+  </si>
+  <si>
+    <t>Ionic Compound Practice Wksht</t>
+  </si>
+  <si>
+    <t>12/10/2018</t>
+  </si>
+  <si>
+    <t>Ionic Dice</t>
+  </si>
+  <si>
+    <t>12/07/2018</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>12/06/2018</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>12/05/2018</t>
+  </si>
+  <si>
+    <t>Chapter 6-8 Multiple Choice and Fill Blanks Exam</t>
+  </si>
+  <si>
+    <t>12/04/2018</t>
+  </si>
+  <si>
+    <t>Chapter 6-8 Paper Test</t>
+  </si>
+  <si>
+    <t>Ch6-8 Review</t>
+  </si>
+  <si>
+    <t>11/30/2018</t>
+  </si>
+  <si>
+    <t>Ch 8 STP and AQs 7-8</t>
+  </si>
+  <si>
+    <t>Quantum Mechanical Model Intervention</t>
+  </si>
+  <si>
+    <t>Shapes Lab Done</t>
+  </si>
+  <si>
+    <t>Warm-up Check 11.30</t>
+  </si>
+  <si>
+    <t>11/29/2018</t>
+  </si>
+  <si>
+    <t>8.3 8.4</t>
+  </si>
+  <si>
+    <t>Shapes Lab Columns 3 &amp; 4</t>
+  </si>
+  <si>
+    <t>11/27/2018</t>
+  </si>
+  <si>
+    <t>8.2 PC</t>
+  </si>
+  <si>
+    <t>Shapes Lab Columns 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>11/26/2018</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>11/19/2018</t>
+  </si>
+  <si>
+    <t>Tie-Dye Activity</t>
+  </si>
+  <si>
+    <t>11/16/2018</t>
+  </si>
+  <si>
+    <t>Stuff Matters</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>11/15/2018</t>
+  </si>
+  <si>
+    <t>7.3 and STP</t>
+  </si>
+  <si>
+    <t>11/13/2018</t>
+  </si>
+  <si>
+    <t>Penny Alloy Lab</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Elements and Compounds in a Bottle</t>
+  </si>
+  <si>
+    <t>Formation of Ions Wksht</t>
+  </si>
+  <si>
+    <t>11/12/2018</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>11/09/2018</t>
+  </si>
+  <si>
+    <t>Quick Lab Ionic Radii</t>
+  </si>
+  <si>
+    <t>Ch6 Assessment Qs</t>
+  </si>
+  <si>
+    <t>11/08/2018</t>
+  </si>
+  <si>
+    <t>Electron Shielding Follow-up</t>
+  </si>
+  <si>
+    <t>Electron Shielding Lab</t>
+  </si>
+  <si>
+    <t>Elements of Life and Ch 6 STP</t>
+  </si>
+  <si>
+    <t>11/05/2018</t>
+  </si>
+  <si>
+    <t>Metal vs Nonmetal Lab</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Warm-up Check 11.5</t>
+  </si>
+  <si>
+    <t>11/02/2018</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>11/01/2018</t>
+  </si>
+  <si>
+    <t>Chemistry Aliens</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>10/31/2018</t>
+  </si>
+  <si>
+    <t>Chapter 4-5 Paper Exam</t>
+  </si>
+  <si>
+    <t>Conversion Enrichment Assignment</t>
+  </si>
+  <si>
+    <t>Chapter 4-5 Multiple Choice and Fill Blanks Exam</t>
+  </si>
+  <si>
+    <t>10/30/2018</t>
+  </si>
+  <si>
+    <t>Study List Ch 4-5</t>
+  </si>
+  <si>
+    <t>Travel Review Ch 4-5</t>
+  </si>
+  <si>
+    <t>10/29/2018</t>
+  </si>
+  <si>
+    <t>Gas Emission Lab</t>
+  </si>
+  <si>
+    <t>10/23/2018</t>
+  </si>
+  <si>
+    <t>Flame Test Lab</t>
+  </si>
+  <si>
+    <t>Gas Emission PreLab</t>
+  </si>
+  <si>
+    <t>10/22/2018</t>
+  </si>
+  <si>
+    <t>Ch5 STP and Assess Qs</t>
+  </si>
+  <si>
+    <t>Review Activity 1 Ch4-5</t>
+  </si>
+  <si>
+    <t>Review Activity 2 Ch4-5</t>
+  </si>
+  <si>
+    <t>Warm-up check 10.22</t>
+  </si>
+  <si>
+    <t>10/18/2018</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Electron Configuration Back</t>
+  </si>
+  <si>
+    <t>5.2 Problems</t>
+  </si>
+  <si>
+    <t>10/16/2018</t>
+  </si>
+  <si>
+    <t>Electron Configuration Front</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>5.1Lcheck - 5.2notes</t>
+  </si>
+  <si>
+    <t>10/12/2018</t>
+  </si>
+  <si>
+    <t>5.1 notes</t>
+  </si>
+  <si>
+    <t>Atom: Clash of the Titans Video Worksheet</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>Candium Lab</t>
+  </si>
+  <si>
+    <t>Warm-up Check 10.10</t>
+  </si>
+  <si>
+    <t>10/09/2018</t>
+  </si>
+  <si>
+    <t>Subatomic Particles and Atomic Mass Worksheet</t>
+  </si>
+  <si>
+    <t>10/08/2018</t>
+  </si>
+  <si>
+    <t>4.3 and Ch4STP</t>
+  </si>
+  <si>
+    <t>10/05/2018</t>
+  </si>
+  <si>
+    <t>Black Box - PVC Lab</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>10/04/2018</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>10/03/2018</t>
+  </si>
+  <si>
+    <t>Chapters 1-3 Content and Calculations Exam</t>
+  </si>
+  <si>
+    <t>Chapter 1-3 Multiple Choice Exam</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t>Review Ch1-3</t>
+  </si>
+  <si>
+    <t>10/01/2018</t>
+  </si>
+  <si>
+    <t>Conversion and Density Lab</t>
+  </si>
+  <si>
+    <t>09/28/2018</t>
+  </si>
+  <si>
+    <t>Ch 3 Ref Page Assignment</t>
+  </si>
+  <si>
+    <t>09/27/2018</t>
+  </si>
+  <si>
+    <t>Ch 3 STP and Assessment Qs</t>
+  </si>
+  <si>
+    <t>Sig Figs Packet Done</t>
+  </si>
+  <si>
+    <t>09/25/2018</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Property Classification Worksheet</t>
+  </si>
+  <si>
+    <t>09/21/2018</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>09/20/2018</t>
+  </si>
+  <si>
+    <t>How Massive is Your Name?</t>
+  </si>
+  <si>
+    <t>Conversions 8-15</t>
+  </si>
+  <si>
+    <t>09/19/2018</t>
+  </si>
+  <si>
+    <t>Conversions 1-7</t>
+  </si>
+  <si>
+    <t>09/17/2018</t>
+  </si>
+  <si>
+    <t>Metric Prefixes Mnemonic</t>
+  </si>
+  <si>
+    <t>09/14/2018</t>
+  </si>
+  <si>
+    <t>Separation of a Mixture Lab</t>
+  </si>
+  <si>
+    <t>Ch 2 STP and Recycled Mixtures</t>
+  </si>
+  <si>
+    <t>Chapter 1-2 Assessment Qs</t>
+  </si>
+  <si>
+    <t>Warmup Check 9.14</t>
+  </si>
+  <si>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>2.2 2.3</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>1.4 STP</t>
+  </si>
+  <si>
+    <t>Matter Probe</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>1.2 1.3</t>
+  </si>
+  <si>
+    <t>Warmup Check 9.5</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Equipment Quiz</t>
+  </si>
+  <si>
+    <t>Which Equipment Lab</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Bunsen Burner Lab</t>
+  </si>
+  <si>
+    <t>Safety Quiz</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Syllabus Scavenger Hunt</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>Equipment Activity</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Chemistry 1</t>
+  </si>
+  <si>
+    <t>12/21/2018</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Unit 2 Assessment Corrections</t>
+  </si>
+  <si>
+    <t>Unit 2 Essay Assessment</t>
+  </si>
+  <si>
+    <t>Unit 2 Multiple Choice Assessment</t>
+  </si>
+  <si>
+    <t>12/11/2018</t>
+  </si>
+  <si>
+    <t>Classwork</t>
+  </si>
+  <si>
+    <t>Responsive and Accountable Government Debate</t>
+  </si>
+  <si>
+    <t>Ch. 10 Reading Guide</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>WTP Individual Grade</t>
+  </si>
+  <si>
+    <t>Fed. 78 and Anti-Fed. 78</t>
+  </si>
+  <si>
+    <t>Senate Bill</t>
+  </si>
+  <si>
+    <t>Ch. 9 Reading Guide</t>
+  </si>
+  <si>
+    <t>Imperial Presidency Q's</t>
+  </si>
+  <si>
+    <t>11/10/2018</t>
+  </si>
+  <si>
+    <t>WTP Speech 3</t>
+  </si>
+  <si>
+    <t>Federalist 70</t>
+  </si>
+  <si>
+    <t>Ch. 8 Reading Guide</t>
+  </si>
+  <si>
+    <t>11/03/2018</t>
+  </si>
+  <si>
+    <t>WTP Speech 2</t>
+  </si>
+  <si>
+    <t>Thesis Practice</t>
+  </si>
+  <si>
+    <t>Debate Extra Credit</t>
+  </si>
+  <si>
+    <t>WTP Individual Assignment 4</t>
+  </si>
+  <si>
+    <t>Ch. 7 Reading Guide</t>
+  </si>
+  <si>
+    <t>Unit 1 Assessment Corrections</t>
+  </si>
+  <si>
+    <t>10/17/2018</t>
+  </si>
+  <si>
+    <t>Unit 1 Essay Assessment</t>
+  </si>
+  <si>
+    <t>Unit 1 Multiple Choice Assessment</t>
+  </si>
+  <si>
+    <t>WTP Speech 1</t>
+  </si>
+  <si>
+    <t>WTP Individual Assignment 3</t>
+  </si>
+  <si>
+    <t>Federalism Debate</t>
+  </si>
+  <si>
+    <t>Constitutional Scavenger Hunt</t>
+  </si>
+  <si>
+    <t>Ch. 3 Reading Guide</t>
+  </si>
+  <si>
+    <t>Federalist 39 and 46</t>
+  </si>
+  <si>
+    <t>WTP Individual Assignment 2</t>
+  </si>
+  <si>
+    <t>09/24/2018</t>
+  </si>
+  <si>
+    <t>Quote Extra Credit</t>
+  </si>
+  <si>
+    <t>Federalist 10 v. Brutus 1 Writing Activity</t>
+  </si>
+  <si>
+    <t>WTP Individual Assignment 1</t>
+  </si>
+  <si>
+    <t>Current Event Presentation</t>
+  </si>
+  <si>
+    <t>Ch. 1 Reading Guide</t>
+  </si>
+  <si>
+    <t>Ch. 2 Reading Guide</t>
+  </si>
+  <si>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>Federalist 51</t>
+  </si>
+  <si>
+    <t>Vices of the Political System -- Reading Questions</t>
+  </si>
+  <si>
+    <t>Dear George Letter</t>
+  </si>
+  <si>
+    <t>Preamble -- Locke v Hobbes</t>
+  </si>
+  <si>
+    <t>AP American Gov't &amp; Politics</t>
+  </si>
+  <si>
     <t>Tests</t>
   </si>
   <si>
     <t>Semester 1 Final Exam</t>
   </si>
   <si>
-    <t>12/21/2018</t>
-  </si>
-  <si>
     <t>Chapter 6 Test</t>
   </si>
   <si>
-    <t>Homework</t>
-  </si>
-  <si>
     <t>HW Chapter 6</t>
   </si>
   <si>
@@ -105,9 +764,6 @@
     <t>Chapter 4 Process Points</t>
   </si>
   <si>
-    <t>10/30/2018</t>
-  </si>
-  <si>
     <t>Quiz 5 Exponents</t>
   </si>
   <si>
@@ -117,9 +773,6 @@
     <t>ECBR passes</t>
   </si>
   <si>
-    <t>10/16/2018</t>
-  </si>
-  <si>
     <t>Chapter 3 Test</t>
   </si>
   <si>
@@ -132,15 +785,9 @@
     <t>Ch.3 Process Points</t>
   </si>
   <si>
-    <t>10/10/2018</t>
-  </si>
-  <si>
     <t>Quiz 4</t>
   </si>
   <si>
-    <t>10/02/2018</t>
-  </si>
-  <si>
     <t>Chapter 2 Test</t>
   </si>
   <si>
@@ -153,21 +800,12 @@
     <t>Chapter 2 Process Points</t>
   </si>
   <si>
-    <t>09/28/2018</t>
-  </si>
-  <si>
     <t>Quiz 3 Piecewise Functions</t>
   </si>
   <si>
-    <t>09/27/2018</t>
-  </si>
-  <si>
     <t>Quiz 2 Domain</t>
   </si>
   <si>
-    <t>09/11/2018</t>
-  </si>
-  <si>
     <t>Chapter 1 Test</t>
   </si>
   <si>
@@ -187,9 +825,6 @@
   </si>
   <si>
     <t>Tribal Rules Quiz</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>Prep/AP Calc w/Trig</t>
@@ -604,22 +1239,17 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -627,18 +1257,18 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -648,15 +1278,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="D3">
         <v>83</v>
@@ -669,15 +1299,15 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="D4">
         <v>28</v>
@@ -690,9 +1320,728 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12">
+        <v>94</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17">
         <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18">
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29">
+        <v>82</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="e">
+        <f t="shared" ref="F2:F33" si="0">(D2/E2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -701,259 +2050,2511 @@
         <v>8</v>
       </c>
       <c r="D5">
+        <v>38.5</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>82</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>19.5</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="D12">
-        <v>94</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>42.5</v>
+      </c>
+      <c r="E18">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80188679245283023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>35.5</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84523809523809523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
         <v>8</v>
       </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F65" si="1">(D34/E34)</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41">
+        <v>11.5</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>51</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+      <c r="F51" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>24</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" ref="F66:F97" si="2">(D66/E66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69">
+        <v>26</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76">
+        <v>47</v>
+      </c>
+      <c r="E76">
+        <v>59</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79661016949152541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>21</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <v>35</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79">
+        <v>35.5</v>
+      </c>
+      <c r="E79">
+        <v>45</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78888888888888886</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86">
+        <v>18.5</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="E90">
+        <v>40</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" ref="F98:F129" si="3">(D98/E98)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D101">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>17</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102">
+        <v>14</v>
+      </c>
+      <c r="E102">
+        <v>15</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105">
+        <v>15</v>
+      </c>
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="e">
+        <f t="shared" ref="F2:F39" si="0">(D2/E2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7">
+        <v>46.5</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84545454545454546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
       <c r="E14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -963,141 +4564,141 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20">
+        <v>6.5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
         <v>30</v>
       </c>
-      <c r="D18">
-        <v>84</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22">
         <v>35</v>
       </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
       <c r="E22">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>95</v>
-      </c>
       <c r="E23">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="D24">
         <v>14</v>
@@ -1110,214 +4711,319 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>39.25</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.93452380952380953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="D29">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30">
-        <v>14</v>
-      </c>
-      <c r="E30">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
